--- a/data/trans_orig/P04B3_1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_1_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8817</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4179</v>
+        <v>3908</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17923</v>
+        <v>17394</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02765426765248066</v>
+        <v>0.02765426765248067</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01310790240532258</v>
+        <v>0.01225776159044939</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05621363228555294</v>
+        <v>0.05455443555610127</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -762,19 +762,19 @@
         <v>4081</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1911</v>
+        <v>1925</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7539</v>
+        <v>8037</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01291198603857157</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006044995767486479</v>
+        <v>0.006091587249865962</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02385321577023903</v>
+        <v>0.02542742370558598</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -783,19 +783,19 @@
         <v>12898</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7426</v>
+        <v>6834</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21614</v>
+        <v>21131</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02031545598106454</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01169613448262894</v>
+        <v>0.01076431597495053</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03404361126673099</v>
+        <v>0.03328154347986596</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>59198</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46522</v>
+        <v>45256</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74658</v>
+        <v>74548</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1856652142732227</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1459068634365404</v>
+        <v>0.141938214393349</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2341515278270581</v>
+        <v>0.2338075215636385</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -833,19 +833,19 @@
         <v>63475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51722</v>
+        <v>52550</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77655</v>
+        <v>80138</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2008302100815435</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1636458340083337</v>
+        <v>0.1662652262772528</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.245696378418153</v>
+        <v>0.2535519954864109</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>155</v>
@@ -854,19 +854,19 @@
         <v>122673</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>104519</v>
+        <v>103815</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>143933</v>
+        <v>144086</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.193214456049345</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1646215429614873</v>
+        <v>0.163511981381592</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2266993513522197</v>
+        <v>0.2269404814332971</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>16618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9950</v>
+        <v>9964</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26145</v>
+        <v>25516</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0521193599127222</v>
+        <v>0.05211935991272221</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03120564070010301</v>
+        <v>0.03124988461962798</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08200036523954353</v>
+        <v>0.0800260237152558</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -904,19 +904,19 @@
         <v>12009</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7903</v>
+        <v>7574</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18976</v>
+        <v>19061</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0379956634044914</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02500409632128161</v>
+        <v>0.02396522914760084</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06003901313134234</v>
+        <v>0.06030865181918857</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -925,19 +925,19 @@
         <v>28627</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19947</v>
+        <v>20527</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39583</v>
+        <v>41055</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.04508848426587862</v>
+        <v>0.04508848426587863</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0314170777561583</v>
+        <v>0.03233039675842429</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06234534599673602</v>
+        <v>0.06466375986467286</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>234211</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>218416</v>
+        <v>217505</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>249892</v>
+        <v>251365</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7345611581615744</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6850217785212254</v>
+        <v>0.6821653892011116</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7837420807020834</v>
+        <v>0.7883599820068374</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>416</v>
@@ -975,19 +975,19 @@
         <v>236496</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>222104</v>
+        <v>220951</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>249475</v>
+        <v>248618</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7482621404753935</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7027263318757255</v>
+        <v>0.6990783091632915</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7893268283230336</v>
+        <v>0.7866150900754755</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>660</v>
@@ -996,19 +996,19 @@
         <v>470708</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>447166</v>
+        <v>449140</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>490244</v>
+        <v>492414</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.741381603703712</v>
+        <v>0.7413816037037119</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7043022379126939</v>
+        <v>0.7074110608267595</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7721515680222187</v>
+        <v>0.7755702572703056</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>4693</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1394</v>
+        <v>1338</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12310</v>
+        <v>11812</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.008843393663534364</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002626650456466682</v>
+        <v>0.002520717600423824</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02319849980401525</v>
+        <v>0.02226004967778252</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -1121,19 +1121,19 @@
         <v>13991</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8857</v>
+        <v>8395</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21329</v>
+        <v>21126</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.02560201418250231</v>
+        <v>0.02560201418250232</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01620670159955489</v>
+        <v>0.01536238959736647</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03902953517336963</v>
+        <v>0.03865734938254455</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -1142,19 +1142,19 @@
         <v>18684</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12520</v>
+        <v>12631</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28428</v>
+        <v>28408</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01734598373111822</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01162353341131115</v>
+        <v>0.01172683684725642</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02639218128243915</v>
+        <v>0.02637345152104274</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>42294</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29363</v>
+        <v>29476</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60093</v>
+        <v>58819</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07970281139519994</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05533488640986458</v>
+        <v>0.0555466547805387</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1132453643255376</v>
+        <v>0.1108441020047098</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -1192,19 +1192,19 @@
         <v>53794</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42500</v>
+        <v>42611</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66853</v>
+        <v>68310</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09843512610403127</v>
+        <v>0.09843512610403128</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07776803684062779</v>
+        <v>0.07797237912349646</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1223299248188273</v>
+        <v>0.1249969097814841</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -1213,19 +1213,19 @@
         <v>96088</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79876</v>
+        <v>78703</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117848</v>
+        <v>116182</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08920676745207788</v>
+        <v>0.08920676745207787</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07415514779080598</v>
+        <v>0.07306645569935362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1094083589542044</v>
+        <v>0.1078617365637835</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>225591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>200150</v>
+        <v>197060</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>257193</v>
+        <v>256261</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4251251541472814</v>
+        <v>0.4251251541472815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3771814805086436</v>
+        <v>0.3713586701473847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4846782027888067</v>
+        <v>0.4829220719927281</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>258</v>
@@ -1263,19 +1263,19 @@
         <v>200605</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>180549</v>
+        <v>179406</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>220432</v>
+        <v>220765</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3670769716967588</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3303767324835967</v>
+        <v>0.3282852573624405</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4033568337034051</v>
+        <v>0.4039654336142552</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>414</v>
@@ -1284,19 +1284,19 @@
         <v>426197</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>389230</v>
+        <v>392380</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>463156</v>
+        <v>462053</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3956740487304316</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.361354790261612</v>
+        <v>0.3642787851578447</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4299867726550349</v>
+        <v>0.428961991728143</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>258069</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>227449</v>
+        <v>226905</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>284373</v>
+        <v>285428</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4863286407939842</v>
+        <v>0.4863286407939841</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4286255117322336</v>
+        <v>0.4276005318598765</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5358993509027984</v>
+        <v>0.5378860293601814</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>363</v>
@@ -1334,19 +1334,19 @@
         <v>278103</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>257123</v>
+        <v>256954</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>299718</v>
+        <v>299858</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5088858880167075</v>
+        <v>0.5088858880167076</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.470494947883742</v>
+        <v>0.4701859744697383</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5484371133184723</v>
+        <v>0.5486934822012302</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>551</v>
@@ -1355,19 +1355,19 @@
         <v>536172</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>495794</v>
+        <v>498410</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>567717</v>
+        <v>571558</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4977732000863724</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4602870266235111</v>
+        <v>0.4627159592290518</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.527058731475414</v>
+        <v>0.5306246654598744</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>51744</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>39583</v>
+        <v>40211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65196</v>
+        <v>64837</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1642598348461083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1256532374204481</v>
+        <v>0.1276480003594431</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2069634520032396</v>
+        <v>0.2058227704362156</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>70</v>
@@ -1480,19 +1480,19 @@
         <v>44670</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34377</v>
+        <v>35824</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54419</v>
+        <v>56087</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1253444990216096</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09646255346752632</v>
+        <v>0.1005216911947814</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1526993388138005</v>
+        <v>0.157380322288814</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>129</v>
@@ -1501,19 +1501,19 @@
         <v>96415</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>82100</v>
+        <v>80496</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>115175</v>
+        <v>113295</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1436033121212247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1222832341596619</v>
+        <v>0.1198938485577924</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1715448771054962</v>
+        <v>0.1687458985269588</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>41109</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30747</v>
+        <v>31085</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>52609</v>
+        <v>52846</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1305000447903242</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09760465269276034</v>
+        <v>0.09867709709713982</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1670063423066076</v>
+        <v>0.167757120048443</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>96</v>
@@ -1551,19 +1551,19 @@
         <v>66010</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>53880</v>
+        <v>54559</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>79881</v>
+        <v>78700</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1852235973451732</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1511862951429541</v>
+        <v>0.1530908253831874</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2241435667289067</v>
+        <v>0.2208321676329978</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>148</v>
@@ -1572,19 +1572,19 @@
         <v>107120</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>91226</v>
+        <v>90558</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>126053</v>
+        <v>124411</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.159547675576128</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.135875360166595</v>
+        <v>0.1348795910351138</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1877474949300368</v>
+        <v>0.1853014524709389</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>42807</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31608</v>
+        <v>31530</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55720</v>
+        <v>56436</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1358903059969251</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1003378703791145</v>
+        <v>0.1000922898368782</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1768808515840168</v>
+        <v>0.1791541878902483</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -1622,19 +1622,19 @@
         <v>29989</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22801</v>
+        <v>21864</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39620</v>
+        <v>38802</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08414896177789709</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06397888275971444</v>
+        <v>0.06135011621052293</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1111724172330448</v>
+        <v>0.1088787499352657</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>95</v>
@@ -1643,19 +1643,19 @@
         <v>72797</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58916</v>
+        <v>59677</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88796</v>
+        <v>90880</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1084256515096437</v>
+        <v>0.1084256515096438</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08775135994281638</v>
+        <v>0.0888846511728638</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1322559351267771</v>
+        <v>0.1353597570997283</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>179353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>162918</v>
+        <v>162674</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196498</v>
+        <v>196740</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5693498143666423</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5171756353552812</v>
+        <v>0.5164010660395273</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.623774663810161</v>
+        <v>0.62454238493192</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>323</v>
@@ -1693,19 +1693,19 @@
         <v>215711</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200676</v>
+        <v>200595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>231218</v>
+        <v>229571</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6052829418553202</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5630932043184305</v>
+        <v>0.562866902528271</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6487955907763925</v>
+        <v>0.6441738905110371</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>523</v>
@@ -1714,19 +1714,19 @@
         <v>395065</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>370609</v>
+        <v>373432</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>415077</v>
+        <v>417930</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5884233607930035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5519979563906757</v>
+        <v>0.5562016770524851</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6182292924390872</v>
+        <v>0.6224786690669228</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>37371</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27001</v>
+        <v>26673</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53084</v>
+        <v>53492</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1001510498646277</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07236067958423494</v>
+        <v>0.0714821259941331</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1422616908630669</v>
+        <v>0.1433533980594703</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>77</v>
@@ -1839,19 +1839,19 @@
         <v>48306</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37838</v>
+        <v>37878</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60603</v>
+        <v>61361</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1147427137544001</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08987760236652338</v>
+        <v>0.08997356676599819</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1439536414384238</v>
+        <v>0.1457519801495829</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>121</v>
@@ -1860,19 +1860,19 @@
         <v>85677</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>70825</v>
+        <v>69950</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>103736</v>
+        <v>104859</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1078864631928758</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0891850046868387</v>
+        <v>0.08808310195528343</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1306272625206177</v>
+        <v>0.1320416381838292</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>53043</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38899</v>
+        <v>39402</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71958</v>
+        <v>74124</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1421513362830957</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1042469803020863</v>
+        <v>0.105593156416331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1928415831658565</v>
+        <v>0.1986465023451819</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>79</v>
@@ -1910,19 +1910,19 @@
         <v>49251</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38068</v>
+        <v>39465</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61593</v>
+        <v>62571</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1169865349985596</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0904233757093225</v>
+        <v>0.09374192209416429</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1463052404332475</v>
+        <v>0.1486268994110308</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>126</v>
@@ -1931,19 +1931,19 @@
         <v>102294</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>85256</v>
+        <v>86388</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>124059</v>
+        <v>125490</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.128810833052648</v>
+        <v>0.1288108330526479</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1073566517767917</v>
+        <v>0.108782479791848</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1562185735582965</v>
+        <v>0.1580202523873752</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>47695</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>34402</v>
+        <v>34913</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>66403</v>
+        <v>68121</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1278178853431362</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09219555636813442</v>
+        <v>0.09356521002331727</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1779551245486685</v>
+        <v>0.1825588823492063</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>89</v>
@@ -1981,19 +1981,19 @@
         <v>62374</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>50363</v>
+        <v>49818</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>76785</v>
+        <v>77685</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1481597356965803</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.119628958297613</v>
+        <v>0.1183347097339785</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1823904120443801</v>
+        <v>0.1845287209338893</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>135</v>
@@ -2002,19 +2002,19 @@
         <v>110069</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>90605</v>
+        <v>91733</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>133436</v>
+        <v>132435</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1386016192294103</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1140920255070228</v>
+        <v>0.115512677052643</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1680256711029255</v>
+        <v>0.1667661422221687</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>235036</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>211541</v>
+        <v>209549</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>258624</v>
+        <v>257022</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6298797285091404</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5669133297524011</v>
+        <v>0.5615757948097349</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6930937875335335</v>
+        <v>0.6887980765029414</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>353</v>
@@ -2052,19 +2052,19 @@
         <v>261062</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>241784</v>
+        <v>241400</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>277727</v>
+        <v>278576</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.62011101555046</v>
+        <v>0.6201110155504601</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5743173284333809</v>
+        <v>0.5734059923211045</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6596940455955608</v>
+        <v>0.6617108223573051</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>508</v>
@@ -2073,19 +2073,19 @@
         <v>496099</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>466439</v>
+        <v>466167</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>522855</v>
+        <v>526399</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.624701084525066</v>
+        <v>0.6247010845250659</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5873521603490032</v>
+        <v>0.5870096806218186</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6583926687945844</v>
+        <v>0.6628554877481708</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>51691</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41081</v>
+        <v>40833</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>64140</v>
+        <v>63660</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.251335757794441</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1997472017795405</v>
+        <v>0.1985396537028964</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3118648167453061</v>
+        <v>0.3095345038174564</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>76</v>
@@ -2198,19 +2198,19 @@
         <v>38289</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30475</v>
+        <v>29824</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47640</v>
+        <v>47033</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1672609880630408</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1331255095934011</v>
+        <v>0.130284455702615</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2081093592345879</v>
+        <v>0.2054579360116861</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>140</v>
@@ -2219,19 +2219,19 @@
         <v>89980</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>77306</v>
+        <v>77069</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>107039</v>
+        <v>106728</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2070491099784303</v>
+        <v>0.2070491099784304</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1778862669735159</v>
+        <v>0.1773415601190283</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2463035503649745</v>
+        <v>0.2455880315501128</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>9408</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4781</v>
+        <v>4499</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17299</v>
+        <v>16470</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04574588886036526</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02324501828814905</v>
+        <v>0.0218771631841872</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08411053065483609</v>
+        <v>0.08008158657706267</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -2269,19 +2269,19 @@
         <v>8455</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5467</v>
+        <v>5485</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12789</v>
+        <v>12834</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03693584175967241</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02388143621369982</v>
+        <v>0.02396077550722928</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05586677327926258</v>
+        <v>0.05606475366242222</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -2290,19 +2290,19 @@
         <v>17864</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11640</v>
+        <v>12594</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27185</v>
+        <v>26126</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04110516900543914</v>
+        <v>0.04110516900543915</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02678429104595275</v>
+        <v>0.02897913230179683</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06255350798257571</v>
+        <v>0.0601184573194133</v>
       </c>
     </row>
     <row r="26">
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4120</v>
+        <v>4293</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005839428793652582</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02003303699608297</v>
+        <v>0.02087552716120806</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2340,19 +2340,19 @@
         <v>3924</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1889</v>
+        <v>1926</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7410</v>
+        <v>7674</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01714101019923462</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008253424072652206</v>
+        <v>0.00841170080714676</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03237172267292006</v>
+        <v>0.0335209205924412</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2361,19 +2361,19 @@
         <v>5125</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2699</v>
+        <v>2485</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9369</v>
+        <v>8919</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01179257213346784</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00621045488369497</v>
+        <v>0.00571899772690385</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02155827833080065</v>
+        <v>0.02052280749543815</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>143365</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>129988</v>
+        <v>130681</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>154306</v>
+        <v>154679</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6970789245515411</v>
+        <v>0.6970789245515412</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6320359629665688</v>
+        <v>0.6354080960014925</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7502804578935162</v>
+        <v>0.752092324065247</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>390</v>
@@ -2411,19 +2411,19 @@
         <v>178250</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>168938</v>
+        <v>168763</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>187148</v>
+        <v>186499</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7786621599780522</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7379844549865949</v>
+        <v>0.7372192304590192</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8175328666969558</v>
+        <v>0.8146978550750094</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>592</v>
@@ -2432,19 +2432,19 @@
         <v>321614</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>302347</v>
+        <v>305890</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>334967</v>
+        <v>335777</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.7400531488826625</v>
+        <v>0.7400531488826627</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6957188867960455</v>
+        <v>0.7038707985108813</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7707789255519647</v>
+        <v>0.7726444710543396</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>49182</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38515</v>
+        <v>39142</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>62257</v>
+        <v>61644</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1816799507256137</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1422746809147764</v>
+        <v>0.144593053075542</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2299802711793218</v>
+        <v>0.227714315419126</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>63</v>
@@ -2557,19 +2557,19 @@
         <v>35484</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>27892</v>
+        <v>26826</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>45031</v>
+        <v>44258</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1345381228887886</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1057531842199389</v>
+        <v>0.1017111062321627</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1707353916756712</v>
+        <v>0.16780436180761</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>132</v>
@@ -2578,19 +2578,19 @@
         <v>84666</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>71456</v>
+        <v>72000</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>99120</v>
+        <v>99670</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1584158442690492</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1336991406560246</v>
+        <v>0.1347163941062839</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1854591244982006</v>
+        <v>0.1864875482247248</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>38686</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>28798</v>
+        <v>29096</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>50171</v>
+        <v>49626</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1429075703192512</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1063816615384096</v>
+        <v>0.1074825335278129</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1853319039776914</v>
+        <v>0.183319595308635</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>72</v>
@@ -2628,19 +2628,19 @@
         <v>36918</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>28882</v>
+        <v>28915</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>46675</v>
+        <v>46076</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1399745053765583</v>
+        <v>0.1399745053765582</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1095050049266302</v>
+        <v>0.1096295648757016</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1769681708568482</v>
+        <v>0.1746975566163406</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>123</v>
@@ -2649,19 +2649,19 @@
         <v>75604</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>61664</v>
+        <v>62612</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>90156</v>
+        <v>91653</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1414601267600619</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1153771460673148</v>
+        <v>0.1171513411590202</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1686862382682537</v>
+        <v>0.1714875887823941</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>29672</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22495</v>
+        <v>22035</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39783</v>
+        <v>40428</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1096092021550249</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08309730449499211</v>
+        <v>0.08139642216653473</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1469578078065264</v>
+        <v>0.1493424971588432</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>64</v>
@@ -2699,19 +2699,19 @@
         <v>35463</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>27109</v>
+        <v>27266</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>44609</v>
+        <v>45432</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1344555183039323</v>
+        <v>0.1344555183039322</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1027821523868127</v>
+        <v>0.1033781473295007</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1691351487037371</v>
+        <v>0.1722529209024515</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>109</v>
@@ -2720,19 +2720,19 @@
         <v>65135</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>53948</v>
+        <v>53513</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>78885</v>
+        <v>78905</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1218706559523278</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1009396986406727</v>
+        <v>0.1001262879775229</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1475975877033684</v>
+        <v>0.1476352320134664</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>153167</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>137884</v>
+        <v>138431</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>168086</v>
+        <v>167270</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.5658032768001102</v>
+        <v>0.5658032768001101</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5093473152917602</v>
+        <v>0.5113670450857465</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6209164620320982</v>
+        <v>0.6178993437653183</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>261</v>
@@ -2770,19 +2770,19 @@
         <v>155885</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>142634</v>
+        <v>142890</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>168075</v>
+        <v>167832</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5910318534307208</v>
+        <v>0.5910318534307206</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5407922816154571</v>
+        <v>0.5417643271699529</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6372503674497264</v>
+        <v>0.6363283805988733</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>467</v>
@@ -2791,19 +2791,19 @@
         <v>309052</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>287986</v>
+        <v>289392</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>325794</v>
+        <v>329365</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5782533730185612</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.538837854179159</v>
+        <v>0.5414690077012738</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6095785698844634</v>
+        <v>0.6162612634758022</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>89464</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>70933</v>
+        <v>71152</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>111832</v>
+        <v>111966</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1247985855335908</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09894870612436346</v>
+        <v>0.09925429168477796</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1560007721789679</v>
+        <v>0.1561885755600817</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>144</v>
@@ -2916,19 +2916,19 @@
         <v>112737</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>94912</v>
+        <v>96234</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>131518</v>
+        <v>132487</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1464309463358369</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1232789323897276</v>
+        <v>0.1249963954204657</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1708261855818362</v>
+        <v>0.1720836473504542</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>216</v>
@@ -2937,19 +2937,19 @@
         <v>202200</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>176672</v>
+        <v>175109</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>230444</v>
+        <v>230812</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1360005539911754</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1188301310958796</v>
+        <v>0.1177785933366323</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.154997166680613</v>
+        <v>0.1552444837148852</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>138539</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>115950</v>
+        <v>116956</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>165890</v>
+        <v>165614</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1932558178281255</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1617457278956979</v>
+        <v>0.1631485640927798</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.23140983338875</v>
+        <v>0.2310252684345098</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>185</v>
@@ -2987,19 +2987,19 @@
         <v>144558</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>126395</v>
+        <v>125888</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>166424</v>
+        <v>165110</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1877636223759918</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1641721228279109</v>
+        <v>0.1635131520696995</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2161647675008818</v>
+        <v>0.2144570038184147</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>305</v>
@@ -3008,19 +3008,19 @@
         <v>283097</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>253428</v>
+        <v>254747</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>317067</v>
+        <v>317549</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1904117731683627</v>
+        <v>0.1904117731683626</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1704566357234184</v>
+        <v>0.1713434567693429</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2132599380866187</v>
+        <v>0.2135843457783286</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>166392</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>141260</v>
+        <v>141165</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>192831</v>
+        <v>192085</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2321097175188848</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1970520141758224</v>
+        <v>0.1969201560687178</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2689921258451697</v>
+        <v>0.2679506623592238</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>246</v>
@@ -3058,19 +3058,19 @@
         <v>199523</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>176270</v>
+        <v>177337</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>223191</v>
+        <v>223491</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2591564127587888</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.228953430905575</v>
+        <v>0.2303386171137445</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2898980016140013</v>
+        <v>0.2902876127956375</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>387</v>
@@ -3079,19 +3079,19 @@
         <v>365915</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>332585</v>
+        <v>331759</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>403102</v>
+        <v>403434</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2461154115681376</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2236976252765553</v>
+        <v>0.223141689863339</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2711271824042963</v>
+        <v>0.2713505103957007</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>322472</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>291576</v>
+        <v>288661</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>355014</v>
+        <v>354214</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4498358791193989</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4067372742864212</v>
+        <v>0.4026707103167455</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4952301392378282</v>
+        <v>0.494114829840365</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>382</v>
@@ -3129,19 +3129,19 @@
         <v>313077</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>288697</v>
+        <v>288473</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>340386</v>
+        <v>342019</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4066490185293825</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3749814001285378</v>
+        <v>0.3746912451585594</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4421194283952862</v>
+        <v>0.4442403999696625</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>646</v>
@@ -3150,19 +3150,19 @@
         <v>635550</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>589361</v>
+        <v>599135</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>674471</v>
+        <v>681360</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.4274722612723244</v>
+        <v>0.4274722612723243</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3964058390541123</v>
+        <v>0.40297963082053</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4536511457897514</v>
+        <v>0.4582844028295433</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>597931</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>570807</v>
+        <v>571073</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>625018</v>
+        <v>624001</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.7492196875523151</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7152327302960767</v>
+        <v>0.7155657729020001</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7831597611718831</v>
+        <v>0.7818861012505305</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>782</v>
@@ -3275,19 +3275,19 @@
         <v>614249</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>589447</v>
+        <v>589856</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>635248</v>
+        <v>636635</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.7397418957663167</v>
+        <v>0.7397418957663165</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.7098724173027553</v>
+        <v>0.7103648027623077</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.7650313602600911</v>
+        <v>0.7667016924692075</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1355</v>
@@ -3296,19 +3296,19 @@
         <v>1212180</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1178078</v>
+        <v>1177225</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1246263</v>
+        <v>1245466</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.744386840881311</v>
+        <v>0.7443868408813109</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.7234447796092845</v>
+        <v>0.7229213961356704</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.7653168076558817</v>
+        <v>0.7648272242597013</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>85416</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>68177</v>
+        <v>68518</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>106907</v>
+        <v>104266</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1070273941062807</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.08542706069845568</v>
+        <v>0.08585429020397967</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1339563905722862</v>
+        <v>0.1306476537275676</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>140</v>
@@ -3346,19 +3346,19 @@
         <v>106162</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>90448</v>
+        <v>91609</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>123627</v>
+        <v>124161</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1278516978158</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1089265041095638</v>
+        <v>0.1103247502615927</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1488849174498009</v>
+        <v>0.1495271837256114</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>221</v>
@@ -3367,19 +3367,19 @@
         <v>191578</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>169005</v>
+        <v>167163</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>216877</v>
+        <v>220433</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1176459716326629</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1037841325686103</v>
+        <v>0.1026530061292127</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1331817678381879</v>
+        <v>0.1353655358377052</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>72510</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>56362</v>
+        <v>57392</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>90077</v>
+        <v>91702</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.09085600136857397</v>
+        <v>0.09085600136857395</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07062215573953798</v>
+        <v>0.07191278465805047</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1128679927899474</v>
+        <v>0.1149043327570981</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>92</v>
@@ -3417,19 +3417,19 @@
         <v>70153</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>56932</v>
+        <v>55789</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>85570</v>
+        <v>86334</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.08448577424423066</v>
+        <v>0.08448577424423065</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06856383692589046</v>
+        <v>0.06718707767170254</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1030525285983252</v>
+        <v>0.1039719452229186</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>163</v>
@@ -3438,19 +3438,19 @@
         <v>142663</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>122366</v>
+        <v>122976</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>167295</v>
+        <v>165950</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08760774147359458</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07514382211249476</v>
+        <v>0.07551814140281528</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1027340323378118</v>
+        <v>0.1019082657769337</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>42216</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>29621</v>
+        <v>28852</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>57574</v>
+        <v>57396</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.05289691697283022</v>
+        <v>0.05289691697283023</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03711564452649016</v>
+        <v>0.03615255884110459</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.07214074987176859</v>
+        <v>0.07191883866490396</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>47</v>
@@ -3488,19 +3488,19 @@
         <v>39791</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>29047</v>
+        <v>28876</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>53241</v>
+        <v>53406</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04792063217365262</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03498176529735721</v>
+        <v>0.03477593414663141</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.06411863139995716</v>
+        <v>0.06431708686430408</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>84</v>
@@ -3509,19 +3509,19 @@
         <v>82007</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>65531</v>
+        <v>65673</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>101411</v>
+        <v>103180</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.05035944601243171</v>
+        <v>0.0503594460124317</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.04024162824856474</v>
+        <v>0.04032901812115477</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.06227558019394168</v>
+        <v>0.06336151704332565</v>
       </c>
     </row>
     <row r="43">
@@ -3613,19 +3613,19 @@
         <v>890893</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>834264</v>
+        <v>842170</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>947701</v>
+        <v>951565</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2524519287648449</v>
+        <v>0.2524519287648448</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2364050562191417</v>
+        <v>0.2386453207572414</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2685494188041386</v>
+        <v>0.2696443692780311</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1240</v>
@@ -3634,19 +3634,19 @@
         <v>911808</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>865300</v>
+        <v>867654</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>959600</v>
+        <v>962287</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2442659416766128</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2318067546103068</v>
+        <v>0.2324375740690781</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2570691886406873</v>
+        <v>0.2577888191517282</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2133</v>
@@ -3655,19 +3655,19 @@
         <v>1802701</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1725736</v>
+        <v>1733454</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1872521</v>
+        <v>1876820</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.2482440177303333</v>
+        <v>0.2482440177303332</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2376453346690838</v>
+        <v>0.2387081819062324</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2578586279814913</v>
+        <v>0.2584506664944065</v>
       </c>
     </row>
     <row r="45">
@@ -3684,19 +3684,19 @@
         <v>467694</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>426376</v>
+        <v>428180</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>510181</v>
+        <v>508393</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.132530072912581</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1208220565085242</v>
+        <v>0.1213331631691899</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1445698163477051</v>
+        <v>0.1440631253279197</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>762</v>
@@ -3705,19 +3705,19 @@
         <v>528624</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>494132</v>
+        <v>492486</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>568321</v>
+        <v>565778</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1416140711641379</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1323739414884791</v>
+        <v>0.1319329815932082</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1522484657586125</v>
+        <v>0.1515672151654714</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1219</v>
@@ -3726,19 +3726,19 @@
         <v>996318</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>938482</v>
+        <v>945062</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1056143</v>
+        <v>1059072</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.137199596095089</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.129235261145695</v>
+        <v>0.1301413055284129</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1454379094486294</v>
+        <v>0.1458412178789027</v>
       </c>
     </row>
     <row r="46">
@@ -3755,19 +3755,19 @@
         <v>602486</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>549134</v>
+        <v>552259</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>655717</v>
+        <v>654783</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1707260203799952</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1556078744247161</v>
+        <v>0.1564933537975193</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1858101017788956</v>
+        <v>0.185545388811324</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>825</v>
@@ -3776,19 +3776,19 @@
         <v>614041</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>569828</v>
+        <v>569302</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>656919</v>
+        <v>655790</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1644965975451844</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1526524206175233</v>
+        <v>0.1525112683436124</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1759832839369472</v>
+        <v>0.1756807612401255</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1352</v>
@@ -3797,19 +3797,19 @@
         <v>1216527</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1152166</v>
+        <v>1145698</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1283426</v>
+        <v>1278633</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.1675238583434924</v>
+        <v>0.1675238583434923</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.158660883509101</v>
+        <v>0.1577702516031705</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1767362656025211</v>
+        <v>0.1760763259713529</v>
       </c>
     </row>
     <row r="47">
@@ -3826,19 +3826,19 @@
         <v>1567890</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1503782</v>
+        <v>1505727</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1631848</v>
+        <v>1633908</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.444291977942579</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.4261258230192241</v>
+        <v>0.4266771235669607</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.4624159077385864</v>
+        <v>0.4629996695047525</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2535</v>
@@ -3847,19 +3847,19 @@
         <v>1678376</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1628932</v>
+        <v>1625702</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1736654</v>
+        <v>1728695</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.4496233896140648</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.4363778061196437</v>
+        <v>0.435512454245429</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4652355510301278</v>
+        <v>0.4631034041934046</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4031</v>
@@ -3868,19 +3868,19 @@
         <v>3246266</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3157811</v>
+        <v>3155387</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>3328089</v>
+        <v>3324172</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.4470325278310854</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.4348516754782791</v>
+        <v>0.434517893360175</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4583000369297314</v>
+        <v>0.4577606720341669</v>
       </c>
     </row>
     <row r="48">
